--- a/ptuning/source_files/base.xlsx
+++ b/ptuning/source_files/base.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\baido\OneDrive\Work\AI\xbbGPT\ChatGLM-6B-main\ptuning\source_files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/319e384cdbc43ab8/Work/AI/xbbGLM/ChatGLM-6B-main/ptuning/source_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B815B2BA-E263-401C-AC04-6FD220BBD13B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{B815B2BA-E263-401C-AC04-6FD220BBD13B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{43D72194-1B65-4426-835B-79BAC35BEA6F}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
@@ -442,16 +442,16 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="75.6328125" customWidth="1"/>
-    <col min="2" max="2" width="45.7265625" customWidth="1"/>
+    <col min="1" max="1" width="72.375" customWidth="1"/>
+    <col min="2" max="2" width="45.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -459,7 +459,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -467,7 +467,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -475,7 +475,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -483,7 +483,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -491,7 +491,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>10</v>
       </c>
